--- a/CT5310 analysis01 (version 1)(AutoRecovered).xlsx
+++ b/CT5310 analysis01 (version 1)(AutoRecovered).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MaryAnn\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C25F6379-544C-407F-80A5-BA08299B1CAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A693D8-B341-408D-96BA-CEAFA1414E6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="5" activeTab="9" xr2:uid="{97EE3A6D-9E40-423A-B056-C4ED6B404F31}"/>
+    <workbookView xWindow="30750" yWindow="1950" windowWidth="18000" windowHeight="9360" firstSheet="5" activeTab="9" xr2:uid="{97EE3A6D-9E40-423A-B056-C4ED6B404F31}"/>
   </bookViews>
   <sheets>
     <sheet name="CT5310" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <sheet name="Sheet3" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="408">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -1346,6 +1347,9 @@
   </si>
   <si>
     <t>COMPUTE: PW-LTM-RATE = C5LTM-RATE * 100; .01650000 * 100</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -2776,7 +2780,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2859,6 +2863,11 @@
       <c r="N4">
         <f>0.0165 * 100</f>
         <v>1.6500000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="14:14" x14ac:dyDescent="0.25">

--- a/CT5310 analysis01 (version 1)(AutoRecovered).xlsx
+++ b/CT5310 analysis01 (version 1)(AutoRecovered).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MaryAnn\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A693D8-B341-408D-96BA-CEAFA1414E6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A1746D-E0E7-4AA3-8AD4-F94EAD78DA1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30750" yWindow="1950" windowWidth="18000" windowHeight="9360" firstSheet="5" activeTab="9" xr2:uid="{97EE3A6D-9E40-423A-B056-C4ED6B404F31}"/>
+    <workbookView xWindow="31920" yWindow="3120" windowWidth="18000" windowHeight="9360" firstSheet="5" activeTab="9" xr2:uid="{97EE3A6D-9E40-423A-B056-C4ED6B404F31}"/>
   </bookViews>
   <sheets>
     <sheet name="CT5310" sheetId="1" r:id="rId1"/>
@@ -1349,7 +1349,7 @@
     <t>COMPUTE: PW-LTM-RATE = C5LTM-RATE * 100; .01650000 * 100</t>
   </si>
   <si>
-    <t>test</t>
+    <t>test again</t>
   </si>
 </sst>
 </file>
